--- a/results.xlsx
+++ b/results.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\phili\Documents\CS-680-Proj\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neilh\Desktop\CS-680-Proj\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CF942508-7DFF-4F05-BDBC-C868ED393524}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31C3A610-F747-471C-BEA0-F2B199962BA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{275A1F61-FB33-43AA-AB8D-6E5092A5B8C6}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" xr2:uid="{275A1F61-FB33-43AA-AB8D-6E5092A5B8C6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1775,7 +1775,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Activation Score vs. Alpha</a:t>
+              <a:t>Activation Score vs. Gamma</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -6223,6 +6223,534 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>102420</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>52553</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>372807</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>151358</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E69A49B5-A0FF-11A8-4C4D-D2DD410A84CD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19152420" y="974327"/>
+          <a:ext cx="4572000" cy="3417192"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>40970</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>140326</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>148106</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>11600</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{93627F14-C2D8-6133-F7CF-218E24A4F790}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18961504" y="4949064"/>
+          <a:ext cx="4379515" cy="3200400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>325654</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>63640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>596041</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>114369</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Picture 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3D189490-541F-54CF-B970-6545B7B711E9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="23518567" y="988397"/>
+          <a:ext cx="4542765" cy="3379855"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>166457</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>110971</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>100319</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>98112</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Picture 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{36F51CE4-B783-7F68-D24B-D678799AC4A3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="23359370" y="4919709"/>
+          <a:ext cx="4206240" cy="3316267"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>514049</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>120951</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>53</xdr:col>
+      <xdr:colOff>42541</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>55637</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Picture 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{13A290EB-868D-81B4-EB3E-73A1C4F26AAE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="27728335" y="1028094"/>
+          <a:ext cx="4366587" cy="3200400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>30239</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>131031</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>52</xdr:col>
+      <xdr:colOff>239401</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>65717</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="Picture 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DC6694B9-10BB-2C57-9502-18BEBC2AD0D7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="27244525" y="4848174"/>
+          <a:ext cx="4442495" cy="3200400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>53</xdr:col>
+      <xdr:colOff>20160</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>141111</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>60</xdr:col>
+      <xdr:colOff>32950</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>75797</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="Picture 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8610849D-F922-1D13-5ABC-FD3B94E5E573}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="32072541" y="1048254"/>
+          <a:ext cx="4246123" cy="3200400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>52</xdr:col>
+      <xdr:colOff>201589</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>89563</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>59</xdr:col>
+      <xdr:colOff>293646</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>24249</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="Picture 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0E50EB46-9B85-2878-F00B-85C8B2ADA8B3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="31649208" y="4806706"/>
+          <a:ext cx="4325390" cy="3200400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>59</xdr:col>
+      <xdr:colOff>544287</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>120951</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>66</xdr:col>
+      <xdr:colOff>537987</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>55637</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="Picture 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{93D4A8C6-BA78-0F11-D9AB-BEA498B8D6E3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="36225239" y="1028094"/>
+          <a:ext cx="4227034" cy="3200400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>59</xdr:col>
+      <xdr:colOff>280149</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>112059</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>66</xdr:col>
+      <xdr:colOff>301651</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>137459</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="Picture 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B605C4B8-F9B4-E2C5-8457-2A23F75C3057}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="36092281" y="4967941"/>
+          <a:ext cx="4270399" cy="3200400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>49</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>59</xdr:col>
+      <xdr:colOff>278172</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>141606</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="Picture 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4115CE7C-F4B4-EB25-6275-EA4C8C7BD353}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="29818542" y="9260417"/>
+          <a:ext cx="6363588" cy="6068272"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>59</xdr:col>
+      <xdr:colOff>211668</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>69</xdr:col>
+      <xdr:colOff>566050</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>151132</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="Picture 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A38EEDF1-8817-A346-AF5E-8DAAFDDBF1DD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="36115626" y="9260417"/>
+          <a:ext cx="6439799" cy="6077798"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -6525,13 +7053,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28E859CA-D8FA-4314-91E2-67027CC3E8EF}">
   <dimension ref="A1:K10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="P9" sqref="P9"/>
+    <sheetView tabSelected="1" topLeftCell="P25" zoomScale="168" workbookViewId="0">
+      <selection activeCell="AB18" sqref="AB18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -6563,7 +7091,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B2">
         <v>0.25</v>
       </c>
@@ -6583,7 +7111,7 @@
         <v>146.93899999999999</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B3">
         <v>0.5</v>
       </c>
@@ -6603,7 +7131,7 @@
         <v>337.48500000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B4">
         <v>1</v>
       </c>
@@ -6623,7 +7151,7 @@
         <v>584.25</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B5">
         <v>3</v>
       </c>
@@ -6643,7 +7171,7 @@
         <v>780.47799999999995</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="C6" t="s">
         <v>7</v>
       </c>
@@ -6654,7 +7182,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B7">
         <v>1</v>
       </c>
@@ -6674,7 +7202,7 @@
         <v>128.44200000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B8">
         <v>1</v>
       </c>
@@ -6694,7 +7222,7 @@
         <v>338.63</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B9">
         <v>1</v>
       </c>
@@ -6714,7 +7242,7 @@
         <v>584.25</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B10">
         <v>1</v>
       </c>

--- a/results.xlsx
+++ b/results.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neilh\Desktop\CS-680-Proj\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\phili\Documents\2nd year\CS-680-Proj\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31C3A610-F747-471C-BEA0-F2B199962BA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8819ACA-E7A9-4B4F-9F42-0A1D7E2CB8F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" xr2:uid="{275A1F61-FB33-43AA-AB8D-6E5092A5B8C6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{275A1F61-FB33-43AA-AB8D-6E5092A5B8C6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -141,1063 +141,6 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Activation Score vs. Alpha</a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>ResNet50,</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> 100 steps</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="smoothMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$D$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>ResNet50</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet1!$B$2:$B$5</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>0.25</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet1!$D$2:$D$5</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>119.742</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>151.86699999999999</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>183.017</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>190.81800000000001</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-2A54-4FD5-8F1B-DB09868924AE}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="1509735408"/>
-        <c:axId val="1463288048"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="1509735408"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1463288048"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="1463288048"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1509735408"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Activation Score vs. Steps</a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>ResNet50, Alpha=1</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="smoothMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet1!$C$7:$C$10</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>200</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet1!$D$7:$D$10</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>70.730400000000003</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>121.727</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>183.017</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>235.505</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-7744-40C7-B41F-7EE273899268}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="1568041504"/>
-        <c:axId val="1347973648"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="1568041504"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1347973648"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="1347973648"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1568041504"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Activation Score vs. Steps</a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>AlexNet, Alpha=1</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="smoothMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet1!$I$7:$I$10</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>200</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet1!$J$7:$J$10</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>128.44200000000001</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>338.63</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>584.25</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>762.86400000000003</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-7B13-4C5C-B4F6-C674132E4CBA}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="1509734480"/>
-        <c:axId val="1463121696"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="1509734480"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1463121696"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="1463121696"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1509734480"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
               <a:t>Activation Score vs. Steps</a:t>
             </a:r>
           </a:p>
@@ -1243,7 +186,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$D$6</c:f>
+              <c:f>Sheet1!$D$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1278,7 +221,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$C$7:$C$10</c:f>
+              <c:f>Sheet1!$C$8:$C$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -1299,7 +242,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$D$7:$D$10</c:f>
+              <c:f>Sheet1!$D$8:$D$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -1330,7 +273,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$J$6</c:f>
+              <c:f>Sheet1!$J$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1365,7 +308,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$C$7:$C$10</c:f>
+              <c:f>Sheet1!$C$8:$C$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -1386,7 +329,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$J$7:$J$10</c:f>
+              <c:f>Sheet1!$J$8:$J$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -1740,7 +683,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -2322,6 +1265,1093 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Activation Score vs. Alpha</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>ResNet50,</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> 100 steps</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ResNet50</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$B$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$2:$D$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>119.742</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>151.86699999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>183.017</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>190.81800000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>184.919874572753</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2A54-4FD5-8F1B-DB09868924AE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1509735408"/>
+        <c:axId val="1463288048"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1509735408"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1463288048"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1463288048"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1509735408"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Activation Score vs. Steps</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>ResNet50, Alpha=1</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$8:$C$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>800</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$8:$D$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>70.730400000000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>121.727</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>183.017</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>235.505</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>274.50207214355402</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>305.08829956054598</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7744-40C7-B41F-7EE273899268}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1568041504"/>
+        <c:axId val="1347973648"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1568041504"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1347973648"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1347973648"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1568041504"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Activation Score vs. Steps</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>AlexNet, Alpha=1</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$I$8:$I$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>800</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$J$8:$J$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>128.44200000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>338.63</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>584.25</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>762.86400000000003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>814.97256469726506</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>856.96938476562502</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7B13-4C5C-B4F6-C674132E4CBA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1509734480"/>
+        <c:axId val="1463121696"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1509734480"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1463121696"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1463121696"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1509734480"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
@@ -2435,10 +2465,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$H$2:$H$5</c:f>
+              <c:f>Sheet1!$H$2:$H$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>0.25</c:v>
                 </c:pt>
@@ -2450,16 +2480,19 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$J$2:$J$5</c:f>
+              <c:f>Sheet1!$J$2:$J$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>146.93899999999999</c:v>
                 </c:pt>
@@ -2471,6 +2504,9 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>780.47799999999995</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>762.98673706054603</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6009,23 +6045,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>176212</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>486615</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>75919</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>61912</xdr:rowOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>186297</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>152119</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2">
+        <xdr:cNvPr id="7" name="Chart 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4EF6F2C0-F6D3-FBE0-69A5-D650A84925BB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{300DD533-F7BD-36AB-68C7-C98A30DE3A1B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6045,124 +6081,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>80962</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>71437</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>385762</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>147637</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7F67E71A-BA77-CEE6-9BC8-028D7F936024}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>23812</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>71437</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>328612</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>147637</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Chart 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{097F1C15-732C-998D-0BE4-EBB476C8C471}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>4762</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>109537</xdr:rowOff>
+      <xdr:colOff>376797</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>37819</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
-      <xdr:colOff>309562</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>185737</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="7" name="Chart 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{300DD533-F7BD-36AB-68C7-C98A30DE3A1B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>500062</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>71437</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>195262</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>147637</xdr:rowOff>
+      <xdr:colOff>71997</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>114019</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6181,43 +6109,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>595312</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>157162</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>290512</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>42862</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="9" name="Chart 8">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AC9FFB27-EEF5-2E84-BAE6-00B4B924831F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -6227,13 +6119,13 @@
     <xdr:from>
       <xdr:col>31</xdr:col>
       <xdr:colOff>102420</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>52553</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>38</xdr:col>
       <xdr:colOff>372807</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>151358</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -6250,7 +6142,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -6271,13 +6163,13 @@
     <xdr:from>
       <xdr:col>31</xdr:col>
       <xdr:colOff>40970</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>140326</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>38</xdr:col>
       <xdr:colOff>148106</xdr:colOff>
-      <xdr:row>44</xdr:row>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>11600</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -6294,7 +6186,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -6315,13 +6207,13 @@
     <xdr:from>
       <xdr:col>38</xdr:col>
       <xdr:colOff>325654</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>63640</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>45</xdr:col>
       <xdr:colOff>596041</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>114369</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -6338,7 +6230,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -6359,13 +6251,13 @@
     <xdr:from>
       <xdr:col>38</xdr:col>
       <xdr:colOff>166457</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>110971</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>45</xdr:col>
       <xdr:colOff>100319</xdr:colOff>
-      <xdr:row>44</xdr:row>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>98112</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -6382,7 +6274,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -6403,13 +6295,13 @@
     <xdr:from>
       <xdr:col>45</xdr:col>
       <xdr:colOff>514049</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>120951</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>53</xdr:col>
-      <xdr:colOff>42541</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:colOff>42542</xdr:colOff>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>55637</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -6426,7 +6318,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -6447,13 +6339,13 @@
     <xdr:from>
       <xdr:col>45</xdr:col>
       <xdr:colOff>30239</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>131031</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>52</xdr:col>
       <xdr:colOff>239401</xdr:colOff>
-      <xdr:row>44</xdr:row>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>65717</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -6470,7 +6362,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -6491,13 +6383,13 @@
     <xdr:from>
       <xdr:col>53</xdr:col>
       <xdr:colOff>20160</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>141111</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>60</xdr:col>
       <xdr:colOff>32950</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>75797</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -6514,7 +6406,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -6535,13 +6427,13 @@
     <xdr:from>
       <xdr:col>52</xdr:col>
       <xdr:colOff>201589</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>89563</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>59</xdr:col>
       <xdr:colOff>293646</xdr:colOff>
-      <xdr:row>44</xdr:row>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>24249</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -6558,7 +6450,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -6579,13 +6471,13 @@
     <xdr:from>
       <xdr:col>59</xdr:col>
       <xdr:colOff>544287</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>120951</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>66</xdr:col>
       <xdr:colOff>537987</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>55637</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -6602,7 +6494,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -6623,13 +6515,13 @@
     <xdr:from>
       <xdr:col>59</xdr:col>
       <xdr:colOff>280149</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>112059</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>66</xdr:col>
       <xdr:colOff>301651</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>137459</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -6646,7 +6538,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -6667,13 +6559,13 @@
     <xdr:from>
       <xdr:col>49</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>59</xdr:col>
       <xdr:colOff>278172</xdr:colOff>
-      <xdr:row>82</xdr:row>
+      <xdr:row>84</xdr:row>
       <xdr:rowOff>141606</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -6690,7 +6582,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -6711,13 +6603,13 @@
     <xdr:from>
       <xdr:col>59</xdr:col>
       <xdr:colOff>211668</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>69</xdr:col>
-      <xdr:colOff>566050</xdr:colOff>
-      <xdr:row>82</xdr:row>
+      <xdr:colOff>566051</xdr:colOff>
+      <xdr:row>84</xdr:row>
       <xdr:rowOff>151132</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -6734,7 +6626,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -6749,6 +6641,150 @@
         </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>586628</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>176212</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>286310</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>61912</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="20" name="Chart 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{41AF48F9-630E-FF30-5EAE-C96C8A893425}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId15"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>562815</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>71437</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>262497</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>147637</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="21" name="Chart 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B55894C7-D585-F19D-65FD-BB83208614AA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId16"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>505664</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>71437</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>205347</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>147637</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="22" name="Chart 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BC3CF11D-4028-9452-5D46-F92DE9EECBA1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId17"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>472047</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>157162</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>167247</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>42862</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="23" name="Chart 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FAB66E6D-F117-D299-196B-12F6D20915FD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId18"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -7051,15 +7087,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28E859CA-D8FA-4314-91E2-67027CC3E8EF}">
-  <dimension ref="A1:K10"/>
+  <dimension ref="A1:K13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P25" zoomScale="168" workbookViewId="0">
-      <selection activeCell="AB18" sqref="AB18"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="28" max="28" width="0" hidden="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -7091,7 +7130,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B2">
         <v>0.25</v>
       </c>
@@ -7111,7 +7150,7 @@
         <v>146.93899999999999</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B3">
         <v>0.5</v>
       </c>
@@ -7131,7 +7170,7 @@
         <v>337.48500000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B4">
         <v>1</v>
       </c>
@@ -7151,7 +7190,7 @@
         <v>584.25</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>3</v>
       </c>
@@ -7171,99 +7210,160 @@
         <v>780.47799999999995</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="C6" t="s">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>4</v>
+      </c>
+      <c r="C6">
+        <v>100</v>
+      </c>
+      <c r="D6">
+        <v>184.919874572753</v>
+      </c>
+      <c r="H6">
+        <v>4</v>
+      </c>
+      <c r="I6">
+        <v>100</v>
+      </c>
+      <c r="J6">
+        <v>762.98673706054603</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
         <v>7</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D7" t="s">
         <v>5</v>
       </c>
-      <c r="J6" t="s">
+      <c r="J7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="B7">
-        <v>1</v>
-      </c>
-      <c r="C7">
-        <v>25</v>
-      </c>
-      <c r="D7">
-        <v>70.730400000000003</v>
-      </c>
-      <c r="H7">
-        <v>1</v>
-      </c>
-      <c r="I7">
-        <v>25</v>
-      </c>
-      <c r="J7">
-        <v>128.44200000000001</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B8">
         <v>1</v>
       </c>
       <c r="C8">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="D8">
-        <v>121.727</v>
+        <v>70.730400000000003</v>
       </c>
       <c r="H8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="J8">
-        <v>338.63</v>
+        <v>128.44200000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B9">
         <v>1</v>
       </c>
       <c r="C9">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D9">
-        <v>183.017</v>
+        <v>121.727</v>
       </c>
       <c r="H9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J9">
-        <v>584.25</v>
+        <v>338.63</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B10">
         <v>1</v>
       </c>
       <c r="C10">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="D10">
-        <v>235.505</v>
+        <v>183.017</v>
       </c>
       <c r="H10">
         <v>1</v>
       </c>
       <c r="I10">
+        <v>100</v>
+      </c>
+      <c r="J10">
+        <v>584.25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
         <v>200</v>
       </c>
-      <c r="J10">
+      <c r="D11">
+        <v>235.505</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+      <c r="I11">
+        <v>200</v>
+      </c>
+      <c r="J11">
         <v>762.86400000000003</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>400</v>
+      </c>
+      <c r="D12">
+        <v>274.50207214355402</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
+      <c r="I12">
+        <v>400</v>
+      </c>
+      <c r="J12">
+        <v>814.97256469726506</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13">
+        <v>800</v>
+      </c>
+      <c r="D13">
+        <v>305.08829956054598</v>
+      </c>
+      <c r="H13">
+        <v>1</v>
+      </c>
+      <c r="I13">
+        <v>800</v>
+      </c>
+      <c r="J13">
+        <v>856.96938476562502</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/results.xlsx
+++ b/results.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\phili\Documents\2nd year\CS-680-Proj\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8819ACA-E7A9-4B4F-9F42-0A1D7E2CB8F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0F2F6B0-8544-4C4D-BBDA-4F9E32A14776}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{275A1F61-FB33-43AA-AB8D-6E5092A5B8C6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{275A1F61-FB33-43AA-AB8D-6E5092A5B8C6}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="ablation" sheetId="1" r:id="rId1"/>
+    <sheet name="regularization" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="21">
   <si>
     <t>alpha</t>
   </si>
@@ -52,6 +53,42 @@
   </si>
   <si>
     <t>Alpha</t>
+  </si>
+  <si>
+    <t>alpha: 1.5</t>
+  </si>
+  <si>
+    <t>steps: 200</t>
+  </si>
+  <si>
+    <t>Jitter only</t>
+  </si>
+  <si>
+    <t>TV only</t>
+  </si>
+  <si>
+    <t>Jitter and TV</t>
+  </si>
+  <si>
+    <t>C_Jitter</t>
+  </si>
+  <si>
+    <t>Activation loss</t>
+  </si>
+  <si>
+    <t>Jitter loss</t>
+  </si>
+  <si>
+    <t>TV loss</t>
+  </si>
+  <si>
+    <t>T_Jitter</t>
+  </si>
+  <si>
+    <t>Jitter_rate</t>
+  </si>
+  <si>
+    <t>TV_rate</t>
   </si>
 </sst>
 </file>
@@ -186,7 +223,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$D$7</c:f>
+              <c:f>ablation!$D$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -221,7 +258,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$C$8:$C$11</c:f>
+              <c:f>ablation!$C$8:$C$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -242,7 +279,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$D$8:$D$11</c:f>
+              <c:f>ablation!$D$8:$D$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -273,7 +310,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$J$7</c:f>
+              <c:f>ablation!$J$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -308,7 +345,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$C$8:$C$11</c:f>
+              <c:f>ablation!$C$8:$C$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -329,7 +366,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$J$8:$J$11</c:f>
+              <c:f>ablation!$J$8:$J$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -763,7 +800,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$D$1</c:f>
+              <c:f>ablation!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -798,7 +835,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$5</c:f>
+              <c:f>ablation!$B$2:$B$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -819,7 +856,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$D$2:$D$5</c:f>
+              <c:f>ablation!$D$2:$D$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -850,7 +887,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$J$1</c:f>
+              <c:f>ablation!$J$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -885,7 +922,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$5</c:f>
+              <c:f>ablation!$B$2:$B$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -906,7 +943,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$J$2:$J$5</c:f>
+              <c:f>ablation!$J$2:$J$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -1359,7 +1396,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$D$1</c:f>
+              <c:f>ablation!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1394,7 +1431,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$6</c:f>
+              <c:f>ablation!$B$2:$B$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1418,7 +1455,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$D$2:$D$6</c:f>
+              <c:f>ablation!$D$2:$D$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1747,7 +1784,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$C$8:$C$13</c:f>
+              <c:f>ablation!$C$8:$C$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -1774,7 +1811,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$D$8:$D$13</c:f>
+              <c:f>ablation!$D$8:$D$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -2106,7 +2143,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$I$8:$I$13</c:f>
+              <c:f>ablation!$I$8:$I$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -2133,7 +2170,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$J$8:$J$13</c:f>
+              <c:f>ablation!$J$8:$J$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -2465,7 +2502,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$H$2:$H$6</c:f>
+              <c:f>ablation!$H$2:$H$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -2489,7 +2526,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$J$2:$J$6</c:f>
+              <c:f>ablation!$J$2:$J$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -7089,7 +7126,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28E859CA-D8FA-4314-91E2-67027CC3E8EF}">
   <dimension ref="A1:K13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
@@ -7366,4 +7403,153 @@
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA6B082C-54DC-43D1-8BD8-E6A0EACE5C0F}">
+  <dimension ref="A1:J34"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:J34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" t="s">
+        <v>17</v>
+      </c>
+      <c r="G10" t="s">
+        <v>18</v>
+      </c>
+      <c r="H10" t="s">
+        <v>15</v>
+      </c>
+      <c r="I10" t="s">
+        <v>16</v>
+      </c>
+      <c r="J10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D18" t="s">
+        <v>16</v>
+      </c>
+      <c r="E18" t="s">
+        <v>17</v>
+      </c>
+      <c r="G18" t="s">
+        <v>19</v>
+      </c>
+      <c r="H18" t="s">
+        <v>15</v>
+      </c>
+      <c r="I18" t="s">
+        <v>16</v>
+      </c>
+      <c r="J18" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>12</v>
+      </c>
+      <c r="B26" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" t="s">
+        <v>15</v>
+      </c>
+      <c r="D26" t="s">
+        <v>16</v>
+      </c>
+      <c r="E26" t="s">
+        <v>17</v>
+      </c>
+      <c r="G26" t="s">
+        <v>20</v>
+      </c>
+      <c r="H26" t="s">
+        <v>15</v>
+      </c>
+      <c r="I26" t="s">
+        <v>16</v>
+      </c>
+      <c r="J26" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>